--- a/01_Input/00_CO Validation/Thailand - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Thailand - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27004"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://undp-my.sharepoint.com/personal/piriya_uraiwong_undp_org/Documents/CC portfolio manager/Energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="179" documentId="8_{BEA16EE7-F676-4A40-AFDF-2F0A10CF2054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABCABAA6-A184-410B-AF70-163BEEE1821E}"/>
+  <xr:revisionPtr revIDLastSave="212" documentId="8_{BEA16EE7-F676-4A40-AFDF-2F0A10CF2054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDC287AA-28C8-415F-ADD9-B1590E756899}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="86">
   <si>
     <t>Project ID</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>Tag</t>
   </si>
   <si>
     <t>SEH Taxonomy</t>
@@ -112,6 +115,124 @@
   </si>
   <si>
     <t>1 - year 2018</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The project key woking areas are: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Private Sector Engagement
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Engage the private sector systematically on NDC mitigation investment opportunities (in energy efficiency) through a Private Climate Expenditure and Institutional Review (PCEIR) that will enhance the leveraging effects of public-private investment mechanisms.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Climate-friendly Investment Opportunities
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- Build capacities to design climate-friendly investment opportunities, address investor risks and blend and catalyze climate finance through an Investment and Financial Flows (I&amp;FF) Assessment in the transport sector
+As the energy sector is the main driver under Thailand’s NDC, the NDC support project has helped address the financial barriers to private investment in energy efficiency by initiating the study to design an Energy Efficiency (EE) Platform to support the implementation of innovative private finance mechanisms for leveraging private investment in the energy efficiency sector. Given the potential investment opportunities that the EE Platform are expected to bring, the Department of Alternative Energy Development and Efficiency (DEDE) submitted the FY2024 budget request to develop the prototype of Module A: Digitalized Measurement Reporting and Verification (MRV) of approximately 6.2 million Thai baht in which 4.8 million Thai baht was approved by the Budget Bureau.</t>
+    </r>
+  </si>
+  <si>
+    <t>Accelerating just energy transition</t>
+  </si>
+  <si>
+    <t>Energy Efficiency</t>
+  </si>
+  <si>
+    <t>NDC Support</t>
+  </si>
+  <si>
+    <t>Decarbonization</t>
+  </si>
+  <si>
+    <t>1 PCEIR analysis conducted</t>
+  </si>
+  <si>
+    <t>Number of exchange forums to engage private sector on NDC opportunities engagement 
+4 Focus group meetings and trainning</t>
+  </si>
+  <si>
+    <t>0 - year 2017</t>
+  </si>
+  <si>
+    <t>Achieving Sustainable Low Carbon Growth in the City through Electrified Urban Transport System in Thailand (E-Transport in LCC)" UNDP-UK PACT Project</t>
+  </si>
+  <si>
+    <t>https://undp.sharepoint.com/:f:/r/teams/THA/IntegratedProgrammeTeam/IGSD%20Document/IGSD%20Document/Support%20document%20on%20Tracking%20the%20Energy%20Moonshot/00124794%20E-Transport%20in%20LCC?csf=1&amp;web=1&amp;e=VaOW8z</t>
+  </si>
+  <si>
+    <t>Capacity Training</t>
+  </si>
+  <si>
+    <t>Number of beneficiaries attended the workshops/trainings on development of EV public transportation in Nakhon Ratchasima province</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of beneficiaries: ~300: 
+Series of workshop and training on the Development of EV Public Transportation in Nakhon Ratchasima were organized for the beneficiaries in Nakhon Ratchasima including government and private sectors, public organization, academies and communities. 
+</t>
+  </si>
+  <si>
+    <t>Policy recommendation to promote the use of EV public transportation in Nakhon Ratchasima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Policy recommendation to promote the use of EV public transportation, including a proposal for electrified urban transport routes and stations, cost-benefit of an electrified urban transport system, predicted air quality and GHG emission reduction and analysis of related laws, policies and regulations was proposed to Nakhon Ratchasima Municipality. The policy recommendation was accepted  by the municipality which the result from the project will support municipality’s transition toward a low carbon and sustainable city. In particular, the results would guide municipality’s decision making in policy matters and practical ways to form cooperation between public and private sectors.
+</t>
+  </si>
+  <si>
+    <t>Incentives and Support</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Number of technical reviews and recommendations endorsed by the Private Climate Expenditure and Instutution Review (PCEIR) working group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 policy and regulatory documents
+- Design on an Energy Efficiency (EE) Platform
+- Two (2) Policy Brief Promoting private investments in renewable energy in Thailand – Lessons from assessing public policy mechanisms
+</t>
   </si>
   <si>
     <r>
@@ -166,70 +287,6 @@
     </r>
   </si>
   <si>
-    <t>Accelerating just energy transition</t>
-  </si>
-  <si>
-    <t>Energy Efficiency</t>
-  </si>
-  <si>
-    <t>NDC Support</t>
-  </si>
-  <si>
-    <t>Decarbonization</t>
-  </si>
-  <si>
-    <t>1 PCEIR analysis conducted</t>
-  </si>
-  <si>
-    <t>Number of exchange forums to engage private sector on NDC opportunities engagement 
-4 Focus group meetings and trainning</t>
-  </si>
-  <si>
-    <t>0 - year 2017</t>
-  </si>
-  <si>
-    <t>Achieving Sustainable Low Carbon Growth in the City through Electrified Urban Transport System in Thailand (E-Transport in LCC)" UNDP-UK PACT Project</t>
-  </si>
-  <si>
-    <t>https://undp.sharepoint.com/:f:/r/teams/THA/IntegratedProgrammeTeam/IGSD%20Document/IGSD%20Document/Support%20document%20on%20Tracking%20the%20Energy%20Moonshot/00124794%20E-Transport%20in%20LCC?csf=1&amp;web=1&amp;e=VaOW8z</t>
-  </si>
-  <si>
-    <t>Capacity Training</t>
-  </si>
-  <si>
-    <t>Number of beneficiaries attended the workshops/trainings on development of EV public transportation in Nakhon Ratchasima province</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of beneficiaries: ~300: 
-Series of workshop and training on the Development of EV Public Transportation in Nakhon Ratchasima were organized for the beneficiaries in Nakhon Ratchasima including government and private sectors, public organization, academies and communities. 
-</t>
-  </si>
-  <si>
-    <t>Policy recommendation to promote the use of EV public transportation in Nakhon Ratchasima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Policy recommendation to promote the use of EV public transportation, including a proposal for electrified urban transport routes and stations, cost-benefit of an electrified urban transport system, predicted air quality and GHG emission reduction and analysis of related laws, policies and regulations was proposed to Nakhon Ratchasima Municipality. The policy recommendation was accepted  by the municipality which the result from the project will support municipality’s transition toward a low carbon and sustainable city. In particular, the results would guide municipality’s decision making in policy matters and practical ways to form cooperation between public and private sectors.
-</t>
-  </si>
-  <si>
-    <t>Incentives and Support</t>
-  </si>
-  <si>
-    <t>Transport</t>
-  </si>
-  <si>
-    <t>Number of technical reviews and recommendations endorsed by the Private Climate Expenditure and Instutution Review (PCEIR) working group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3 policy and regulatory documents
-- Design on an Energy Efficiency (EE) Platform
-- Two (2) Policy Brief Promoting private investments in renewable energy in Thailand – Lessons from assessing public policy mechanisms
-</t>
-  </si>
-  <si>
     <t>Number of PCEIR analysis conducted</t>
   </si>
   <si>
@@ -358,7 +415,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,6 +445,19 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -447,7 +517,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -531,12 +601,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -608,70 +722,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -714,7 +782,69 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -1028,8 +1158,8 @@
   <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="H5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O6" sqref="O6"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1043,238 +1173,265 @@
     <col min="7" max="7" width="19.85546875" style="6" customWidth="1"/>
     <col min="8" max="8" width="20.140625" style="4" customWidth="1"/>
     <col min="9" max="9" width="65.140625" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="5"/>
+    <col min="10" max="10" width="8.85546875" style="5"/>
+    <col min="11" max="11" width="10.7109375" style="5" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="5"/>
+    <col min="13" max="13" width="10.7109375" style="5" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" style="5"/>
+    <col min="15" max="15" width="12.5703125" style="5" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" style="5" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" style="5"/>
+    <col min="18" max="18" width="12" style="5" customWidth="1"/>
+    <col min="19" max="19" width="17.28515625" style="5" customWidth="1"/>
+    <col min="20" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:19" ht="30.75">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="61" t="s">
+      <c r="N1" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="61" t="s">
+      <c r="O1" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="61" t="s">
+      <c r="P1" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="61" t="s">
+      <c r="Q1" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="61" t="s">
+      <c r="R1" s="65" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="174.95" customHeight="1">
-      <c r="A2" s="36" t="s">
+      <c r="S1" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="37" t="s">
+    </row>
+    <row r="2" spans="1:19" ht="338.25" customHeight="1">
+      <c r="A2" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="B2" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="39">
+      <c r="C2" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="56">
         <v>931500</v>
       </c>
-      <c r="E2" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="27" t="s">
+      <c r="E2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="F2" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="40" t="s">
+      <c r="G2" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="O2" s="5" t="s">
+      <c r="H2" s="25"/>
+      <c r="I2" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="P2" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45" t="s">
         <v>28</v>
       </c>
+      <c r="S2" s="45" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A3" s="36"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="27" t="s">
+      <c r="A3" s="52"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="25"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="O3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:19" ht="62.25" customHeight="1">
+      <c r="A4" s="52"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="25"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="P4" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="Q4" s="45"/>
+      <c r="R4" s="45" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" ht="62.25" customHeight="1">
-      <c r="A4" s="36"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="O4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P4" s="5" t="s">
+      <c r="S4" s="45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="114.95" customHeight="1">
+      <c r="A5" s="53">
+        <v>124794</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="61">
+        <v>641793</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="27">
+        <v>300</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+    </row>
+    <row r="6" spans="1:19" ht="148.5" customHeight="1">
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="27">
+        <v>1</v>
+      </c>
+      <c r="I6" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="P6" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="114.95" customHeight="1">
-      <c r="A5" s="37">
-        <v>124794</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="42">
-        <v>641793</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="30">
-        <v>300</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-    </row>
-    <row r="6" spans="1:19" ht="148.5" customHeight="1">
-      <c r="A6" s="37"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="31">
-        <v>1</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="29"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="O6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="S6" s="5" t="s">
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45" t="s">
         <v>41</v>
+      </c>
+      <c r="S6" s="45" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1285,18 +1442,6 @@
       <c r="G8" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="I2:I4"/>
-  </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O6" xr:uid="{2577619A-775B-4EEB-8771-237BD8CDD45B}">
       <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
@@ -1341,7 +1486,7 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
@@ -1391,116 +1536,116 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="174.95" customHeight="1">
-      <c r="A2" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="53" t="s">
+      <c r="A2" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="B2" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="55">
+      <c r="C2" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="39">
         <v>931500</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" s="50" t="s">
-        <v>24</v>
+        <v>44</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="87">
-      <c r="A3" s="52"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="56"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="14"/>
       <c r="F3" s="15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="50"/>
+        <v>47</v>
+      </c>
+      <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:10" ht="60" customHeight="1">
-      <c r="A4" s="52"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="56"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="14"/>
       <c r="F4" s="15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="50"/>
+        <v>49</v>
+      </c>
+      <c r="I4" s="34"/>
     </row>
     <row r="5" spans="1:10" ht="114.95" customHeight="1">
-      <c r="A5" s="49">
+      <c r="A5" s="33">
         <v>124794</v>
       </c>
-      <c r="B5" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="47" t="s">
+      <c r="B5" s="32" t="s">
         <v>33</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>34</v>
       </c>
       <c r="D5" s="17">
         <v>641793</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G5" s="21" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5" s="18">
         <v>200</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="148.5" customHeight="1">
-      <c r="A6" s="49"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="47"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="11"/>
       <c r="E6" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1571,160 +1716,160 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="57" t="s">
-        <v>51</v>
+      <c r="A2" s="41" t="s">
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="57"/>
+      <c r="A3" s="41"/>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="57"/>
+      <c r="A4" s="41"/>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="58" t="s">
-        <v>58</v>
+      <c r="A5" s="42" t="s">
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="58"/>
+      <c r="A6" s="42"/>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="58"/>
+      <c r="A7" s="42"/>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="58"/>
+      <c r="A8" s="42"/>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="58"/>
+      <c r="A9" s="42"/>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="59" t="s">
-        <v>69</v>
+      <c r="A10" s="43" t="s">
+        <v>71</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="59"/>
+      <c r="A11" s="43"/>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="60" t="s">
-        <v>74</v>
+      <c r="A12" s="44" t="s">
+        <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="60"/>
+      <c r="A13" s="44"/>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="60"/>
+      <c r="A14" s="44"/>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1739,17 +1884,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd739a91710fed73edeed3c312976475">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="829e6ebd84bdd7e43dc34d34aecb984e" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
     <xsd:import namespace="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
     <xsd:element name="properties">
@@ -1773,6 +1909,7 @@
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1848,6 +1985,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="fb9e4d32-074f-4c04-81ef-e811753dfd59" elementFormDefault="qualified">
@@ -1990,6 +2132,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2002,11 +2153,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31E821D2-F459-472F-8E40-5F20B172FFCC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{239AE888-C274-4877-A16E-181720B9347A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D06A8A7-AAD0-46D5-9E3E-4D298B186157}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/01_Input/00_CO Validation/Thailand - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Thailand - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27004"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27226"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://undp-my.sharepoint.com/personal/piriya_uraiwong_undp_org/Documents/CC portfolio manager/Energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="212" documentId="8_{BEA16EE7-F676-4A40-AFDF-2F0A10CF2054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDC287AA-28C8-415F-ADD9-B1590E756899}"/>
+  <xr:revisionPtr revIDLastSave="258" documentId="8_{BEA16EE7-F676-4A40-AFDF-2F0A10CF2054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8919E9E1-B5C7-4EF8-BEC9-5B2BE028988F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="93">
   <si>
     <t>Project ID</t>
   </si>
@@ -71,10 +74,7 @@
     <t>Gender (% female)</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Comments</t>
+    <t>VF or Non-VF</t>
   </si>
   <si>
     <t>Tag</t>
@@ -95,16 +95,19 @@
     <t>Indirect Taxonomy</t>
   </si>
   <si>
-    <t>00107518</t>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Policy or Regulatory Framework</t>
+  </si>
+  <si>
+    <t>Policy Population</t>
   </si>
   <si>
     <t>NDC Support Project</t>
   </si>
   <si>
     <t>https://undp.sharepoint.com/:f:/r/teams/THA/IntegratedProgrammeTeam/IGSD%20Document/IGSD%20Document/Support%20document%20on%20Tracking%20the%20Energy%20Moonshot/00107518%20NDC%20Support?csf=1&amp;web=1&amp;e=DJOLKl</t>
-  </si>
-  <si>
-    <t>Policy or Regulatory Framework</t>
   </si>
   <si>
     <t xml:space="preserve">Number of technical reviews and recommendations endorsed by the Private Climate Expenditure and Instutution Review (PCEIR) working group
@@ -171,26 +174,19 @@
     </r>
   </si>
   <si>
+    <t>Non-VF</t>
+  </si>
+  <si>
     <t>Accelerating just energy transition</t>
   </si>
   <si>
-    <t>Energy Efficiency</t>
+    <t>Renewable Energy</t>
   </si>
   <si>
     <t>NDC Support</t>
   </si>
   <si>
-    <t>Decarbonization</t>
-  </si>
-  <si>
-    <t>1 PCEIR analysis conducted</t>
-  </si>
-  <si>
-    <t>Number of exchange forums to engage private sector on NDC opportunities engagement 
-4 Focus group meetings and trainning</t>
-  </si>
-  <si>
-    <t>0 - year 2017</t>
+    <t>National</t>
   </si>
   <si>
     <t>Achieving Sustainable Low Carbon Growth in the City through Electrified Urban Transport System in Thailand (E-Transport in LCC)" UNDP-UK PACT Project</t>
@@ -199,7 +195,7 @@
     <t>https://undp.sharepoint.com/:f:/r/teams/THA/IntegratedProgrammeTeam/IGSD%20Document/IGSD%20Document/Support%20document%20on%20Tracking%20the%20Energy%20Moonshot/00124794%20E-Transport%20in%20LCC?csf=1&amp;web=1&amp;e=VaOW8z</t>
   </si>
   <si>
-    <t>Capacity Training</t>
+    <t>Capacity Building Training</t>
   </si>
   <si>
     <t>Number of beneficiaries attended the workshops/trainings on development of EV public transportation in Nakhon Ratchasima province</t>
@@ -224,6 +220,12 @@
   </si>
   <si>
     <t>Transport</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>00107518</t>
   </si>
   <si>
     <t>Number of technical reviews and recommendations endorsed by the Private Climate Expenditure and Instutution Review (PCEIR) working group</t>
@@ -297,64 +299,82 @@
     <t xml:space="preserve">Number of exchange forums to engage private sector on NDC opportunities engagement </t>
   </si>
   <si>
+    <t>0 - year 2017</t>
+  </si>
+  <si>
     <t>4 Focus group meetings and trainning</t>
   </si>
   <si>
+    <t>Capacity Training</t>
+  </si>
+  <si>
     <t>One (1) set of policy recommendation proposed to Nakhon Ratchasima Municipality</t>
   </si>
   <si>
-    <t>Tier</t>
-  </si>
-  <si>
-    <t>Explanation</t>
-  </si>
-  <si>
-    <t>Access to Energy</t>
-  </si>
-  <si>
     <t>Electricity Access</t>
   </si>
   <si>
-    <t>Access to electricity (direct access to electricity, lighting,  heating, cooling etc.)</t>
+    <t>Number of people, disaggregated by sex, who gain access to clean electricity (direct access to electricity, lighting, cooling, etc.) </t>
   </si>
   <si>
     <t>Energy (MW added)</t>
   </si>
   <si>
-    <t>Access to energy through installed renewable energy capacity (solar PV, hydro, wind, etc. )</t>
+    <t>Number of MW installed capacity</t>
   </si>
   <si>
     <t>Clean Cooking</t>
   </si>
   <si>
-    <t>Access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.)</t>
-  </si>
-  <si>
-    <t>Productive Use of Energy</t>
-  </si>
-  <si>
-    <t>Agricultural Services</t>
-  </si>
-  <si>
-    <t>Access to agricultural energy services (irrigation with solar pumps, heating systems for processing food, etc. )</t>
+    <t>Number of people who gain access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.).</t>
+  </si>
+  <si>
+    <t>Clean Heating</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean heating (direct access to clean electric heaters, clean fuels, etc.).</t>
+  </si>
+  <si>
+    <t>Agriculture and Food System</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean, affordable, and sustainable electricity for agricultural and food system activities (direct access to power machines for crop, processing, milling, grinding, de-husking, pressing, canning, sealing and packaging electricity, heating, cooling, solar water pumping for irrigation etc.) </t>
   </si>
   <si>
     <t>Health Services</t>
   </si>
   <si>
-    <t>Access to health services powered by solar PV and energy efficient systems such as hospitals</t>
+    <t>Number of people who gain access to health care facilities (direct access to electricity and heating systems for clinics, hospitals, health centers etc.) </t>
   </si>
   <si>
     <t>Water Services</t>
   </si>
   <si>
-    <t>Access to solar water pumps</t>
+    <t>Number of people who gain access to water services (powering water pumps, water distributions, waste management, etc.).  </t>
   </si>
   <si>
     <t>Education Services</t>
   </si>
   <si>
-    <t>Access to education services trough clean energy systems</t>
+    <t>Number of people who gain access to education services through clean energy systems (including students, teachers, etc.) </t>
+  </si>
+  <si>
+    <t>Transportation and E-mobility Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from transport and e-mobility interventions (e.g., electric vehicles, charging stations, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Efficiency Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from energy efficiency interventions (e.g., building efficiency, industries, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Infrastructure Services</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from energy infrastructure interventions (streetlight, transmission, and distribution lines, etc.) </t>
   </si>
   <si>
     <t>Other Energy Services</t>
@@ -363,7 +383,10 @@
     <t>Access to other service (electric vehicles, industries efficiency etc.)</t>
   </si>
   <si>
-    <t>Market Development</t>
+    <t xml:space="preserve">Financing support </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support for the development of market ecosystem </t>
   </si>
   <si>
     <t>Medium Enterprises</t>
@@ -378,10 +401,7 @@
     <t>Support for the development of small enterprises in the energy transition market</t>
   </si>
   <si>
-    <t>Capacity Building</t>
-  </si>
-  <si>
-    <t>Individuals who participate in trainings for energy activities</t>
+    <t>Number of people who benefits from training for enterprises on the energy business and energy finance. </t>
   </si>
   <si>
     <t>Entrepreneurship Training</t>
@@ -390,16 +410,19 @@
     <t>Training for enterprises on the energy business is assumed to result in at least 100 direct beneficiaries</t>
   </si>
   <si>
+    <t>Market Intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume of investment (US dollars) leverage removing barriers to private and public investment in clean, reliable, affordable, and sustainable energy solutions and energy efficiency for social infrastructure, productive use of electricity and other services </t>
+  </si>
+  <si>
     <t>Campaign Participant</t>
   </si>
   <si>
     <t>Individuals who participate in advocacy and campaign on energy</t>
   </si>
   <si>
-    <t>Policy and Regulator Frameworks</t>
-  </si>
-  <si>
-    <t>Policies and regulatory framework can have far-reaching impacts on the energy access situation in countries</t>
+    <t xml:space="preserve">Number of people supported by policy and regulatory framework development on clean, affordable, and sustainable energy </t>
   </si>
   <si>
     <t>Other</t>
@@ -415,12 +438,18 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -460,8 +489,15 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -476,48 +512,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAFFFFD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7FFFFB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF42FFFA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00E1DA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00DAD3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00BDB7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -527,21 +527,6 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -591,17 +576,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -631,7 +605,9 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -639,7 +615,9 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -648,19 +626,10 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -670,13 +639,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -686,7 +655,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -695,154 +664,155 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1155,324 +1125,304 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C06A7BC-BEDE-4EAC-ADC6-727CC394E347}">
-  <dimension ref="A1:S8"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="38" style="5" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="35" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="65.140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="5"/>
-    <col min="11" max="11" width="10.7109375" style="5" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="5"/>
-    <col min="13" max="13" width="10.7109375" style="5" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" style="5"/>
-    <col min="15" max="15" width="12.5703125" style="5" customWidth="1"/>
-    <col min="16" max="16" width="10.28515625" style="5" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" style="5"/>
-    <col min="18" max="18" width="12" style="5" customWidth="1"/>
-    <col min="19" max="19" width="17.28515625" style="5" customWidth="1"/>
-    <col min="20" max="16384" width="8.85546875" style="5"/>
+    <col min="1" max="1" width="15.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="38" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="35" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="65.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="2"/>
+    <col min="11" max="11" width="10.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.28515625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12" style="2" customWidth="1"/>
+    <col min="20" max="20" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="30.75">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:21" ht="30.75">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="64" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="64" t="s">
+      <c r="I1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="65" t="s">
+      <c r="K1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="65" t="s">
+      <c r="M1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="65" t="s">
+      <c r="N1" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="65" t="s">
+      <c r="O1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="65" t="s">
+      <c r="P1" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="65" t="s">
+      <c r="Q1" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="65" t="s">
+      <c r="R1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="65" t="s">
+      <c r="S1" s="47" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="338.25" customHeight="1">
-      <c r="A2" s="51" t="s">
+      <c r="T1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="U1" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="58" t="s">
+    </row>
+    <row r="2" spans="1:21" ht="338.25" customHeight="1">
+      <c r="A2" s="26">
+        <v>107518</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="56">
+      <c r="C2" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="29">
         <v>931500</v>
       </c>
-      <c r="E2" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="25" t="s">
+      <c r="E2" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="25"/>
-      <c r="I2" s="46" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45" t="s">
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="45" t="s">
+      <c r="M2" s="41"/>
+      <c r="N2" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45" t="s">
+      <c r="O2" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="45" t="s">
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" ht="15.75" customHeight="1">
-      <c r="A3" s="52"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="25" t="s">
+      <c r="R2" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" s="50"/>
+      <c r="T2" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45" t="s">
+      <c r="U2" s="50"/>
+    </row>
+    <row r="3" spans="1:21" ht="114.95" customHeight="1">
+      <c r="A3" s="27">
+        <v>124794</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="35">
+        <v>641793</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="34">
+        <v>300</v>
+      </c>
+      <c r="I3" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="45" t="s">
+      <c r="M3" s="41"/>
+      <c r="N3" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45" t="s">
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="50"/>
+    </row>
+    <row r="4" spans="1:21" ht="148.5" customHeight="1">
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="34">
+        <v>1</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="41"/>
+      <c r="N4" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="S3" s="45" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="62.25" customHeight="1">
-      <c r="A4" s="52"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="25"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="S4" s="45" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="114.95" customHeight="1">
-      <c r="A5" s="53">
-        <v>124794</v>
-      </c>
-      <c r="B5" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="61">
-        <v>641793</v>
-      </c>
-      <c r="E5" s="49" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="27">
-        <v>300</v>
-      </c>
-      <c r="I5" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-    </row>
-    <row r="6" spans="1:19" ht="148.5" customHeight="1">
-      <c r="A6" s="55"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="27" t="s">
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="27">
-        <v>1</v>
-      </c>
-      <c r="I6" s="27" t="s">
+      <c r="R4" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="P6" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="45" t="s">
+      <c r="S4" s="50"/>
+      <c r="T4" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="S6" s="45" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="C7" s="13"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:19" ht="14.45">
-      <c r="G8" s="12"/>
+      <c r="U4" s="50">
+        <v>208781</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="C5" s="10"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="G6" s="9"/>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O6" xr:uid="{2577619A-775B-4EEB-8771-237BD8CDD45B}">
+  <dataValidations count="9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N4" xr:uid="{2577619A-775B-4EEB-8771-237BD8CDD45B}">
       <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P6" xr:uid="{51621477-6BE5-4B14-997C-EE5932584680}">
-      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q6" xr:uid="{B19E2F3E-7D23-4BE8-A416-8785405EAAE0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P4" xr:uid="{B19E2F3E-7D23-4BE8-A416-8785405EAAE0}">
       <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R6" xr:uid="{14CBC22B-7136-46C6-9989-ED9A23CB78F5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q4" xr:uid="{14CBC22B-7136-46C6-9989-ED9A23CB78F5}">
       <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S6" xr:uid="{24EBF315-699A-4174-847D-EC201BE13C3C}">
-      <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O4" xr:uid="{98A30E3F-5CD8-427C-BDA7-2DB0E1BBC1E1}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy, Overall"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M4" xr:uid="{F7FE516C-79D2-45C1-A73E-728DC4385D63}">
+      <formula1>"Finance, Gender, Efficiency, Just, Health"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T4" xr:uid="{22A613AD-E7B9-44C4-9225-AF10C3ED0FEA}">
+      <formula1>"National, Regional, City, Community"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L4" xr:uid="{7463ACBB-F133-422B-B063-34AD88D0693B}">
+      <formula1>"Non-VF, VF"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R4" xr:uid="{B4F4B23C-6ACF-41B5-87EE-8B33B2014C74}">
+      <formula1>"Electricity Access, Energy Efficiency, Renewable Energy, Infrastructure,  Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid, Research &amp; Innovation, Grant &amp; Investment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S4" xr:uid="{91ADE0F6-07DA-451C-832E-2F9FE74FE6FC}">
+      <formula1>"Solar, Wind, Bioenergy, Hydro, Geothermal, Waste, Some Sources, Other, Unknown"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{2D152306-0A56-4C0E-AC09-D25A00C6C971}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{893C1BB7-5030-4176-A666-D663613F0426}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{893C1BB7-5030-4176-A666-D663613F0426}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CC240961-5F78-4843-A019-2E934FF1B2BF}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
-          <xm:sqref>E2 E5:E12</xm:sqref>
+          <xm:sqref>E5:E10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FBC85B64-14C5-4D0F-9D6E-D878D3BE41D8}">
+          <x14:formula1>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$22</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1491,169 +1441,169 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="38" style="5" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="35" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="65.140625" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="5"/>
+    <col min="1" max="1" width="15.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="38" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="35" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="65.140625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="21" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="174.95" customHeight="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="59">
+        <v>931500</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="39">
-        <v>931500</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="54" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="87">
-      <c r="A3" s="36"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15" t="s">
+      <c r="A3" s="56"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="34"/>
+      <c r="I3" s="54"/>
     </row>
     <row r="4" spans="1:10" ht="60" customHeight="1">
-      <c r="A4" s="36"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15" t="s">
+      <c r="A4" s="56"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="54"/>
+    </row>
+    <row r="5" spans="1:10" ht="114.95" customHeight="1">
+      <c r="A5" s="53">
+        <v>124794</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="34"/>
-    </row>
-    <row r="5" spans="1:10" ht="114.95" customHeight="1">
-      <c r="A5" s="33">
-        <v>124794</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="31" t="s">
+      <c r="D5" s="14">
+        <v>641793</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="17">
-        <v>641793</v>
-      </c>
-      <c r="E5" s="18" t="s">
+      <c r="G5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="H5" s="15">
+        <v>200</v>
+      </c>
+      <c r="I5" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="21" t="s">
+    </row>
+    <row r="6" spans="1:10" ht="148.5" customHeight="1">
+      <c r="A6" s="53"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="18">
-        <v>200</v>
-      </c>
-      <c r="I5" s="20" t="s">
+      <c r="G6" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="148.5" customHeight="1">
-      <c r="A6" s="33"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
     <row r="7" spans="1:10">
-      <c r="C7" s="13"/>
-      <c r="G7" s="12"/>
+      <c r="C7" s="10"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="G8" s="12"/>
+      <c r="G8" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1677,7 +1627,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E12</xm:sqref>
         </x14:dataValidation>
@@ -1701,189 +1651,220 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="52.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="96" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="96" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="41" t="s">
+      <c r="B1" s="42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30.75">
+      <c r="A2" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="61" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="41"/>
-      <c r="B3" t="s">
+      <c r="B3" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="30.75">
+      <c r="A4" s="61" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="41"/>
-      <c r="B4" t="s">
+      <c r="B4" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="61" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="42" t="s">
+      <c r="B5" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="45.75">
+      <c r="A6" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" s="43" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="42"/>
-      <c r="B6" t="s">
+    <row r="7" spans="1:2" ht="30.75">
+      <c r="A7" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" s="43" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="42"/>
-      <c r="B7" t="s">
+    <row r="8" spans="1:2" ht="30.75">
+      <c r="A8" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" s="43" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="42"/>
-      <c r="B8" t="s">
+    <row r="9" spans="1:2" ht="30.75">
+      <c r="A9" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B9" s="43" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="42"/>
-      <c r="B9" t="s">
+    <row r="10" spans="1:2" ht="30.75">
+      <c r="A10" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" s="62" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="43" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="30.75">
+      <c r="A12" s="61" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="43"/>
-      <c r="B11" t="s">
+      <c r="B12" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="61" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="44" t="s">
+      <c r="B13" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="61" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="44"/>
-      <c r="B13" t="s">
+      <c r="B14" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="61" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="44"/>
-      <c r="B14" t="s">
+      <c r="B15" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="61" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
+      <c r="B16" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="43" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="61" t="s">
         <v>84</v>
       </c>
-      <c r="B16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B18" s="62" t="s">
         <v>85</v>
       </c>
     </row>
+    <row r="19" spans="1:2" ht="45.75">
+      <c r="A19" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30.75">
+      <c r="A21" s="61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="62" t="s">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
@@ -2132,28 +2113,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31E821D2-F459-472F-8E40-5F20B172FFCC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEDBCE-AE29-4AA3-A5BD-B932231712F2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2161,5 +2122,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84AEDBCE-AE29-4AA3-A5BD-B932231712F2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31E821D2-F459-472F-8E40-5F20B172FFCC}"/>
 </file>